--- a/data/survey.xlsx
+++ b/data/survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/UO/Terms/Winter 2019/R/viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/SKY@UO/SKY-UO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C033A4-1604-CC42-8782-944DF4814B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC133DFC-D744-C745-8B46-879E00B1BFD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="2220" windowWidth="28040" windowHeight="17040" xr2:uid="{C74A5F35-91CC-8346-B990-65C696A22662}"/>
+    <workbookView xWindow="31940" yWindow="3740" windowWidth="22620" windowHeight="12640" xr2:uid="{C74A5F35-91CC-8346-B990-65C696A22662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>good_investment_of_time</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>JL</t>
   </si>
 </sst>
 </file>
@@ -654,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C867C38C-DA7B-E24E-A326-F4A3BE7C4C9D}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1839,8 +1845,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:18" ht="17">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5</v>
+      </c>
+      <c r="R23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="17">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2">
+        <v>5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+      <c r="P24" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>5</v>
+      </c>
+      <c r="R24" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/survey.xlsx
+++ b/data/survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/SKY@UO/SKY-UO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC133DFC-D744-C745-8B46-879E00B1BFD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F206C7-A3C9-9F4A-8407-3934F43BED4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="3740" windowWidth="22620" windowHeight="12640" xr2:uid="{C74A5F35-91CC-8346-B990-65C696A22662}"/>
+    <workbookView xWindow="3420" yWindow="2640" windowWidth="22620" windowHeight="12640" xr2:uid="{C74A5F35-91CC-8346-B990-65C696A22662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -298,6 +298,57 @@
   </si>
   <si>
     <t>JL</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Life changing. The breathing exercises really have helped center me.</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>You will lean about yourself</t>
+  </si>
+  <si>
+    <t>Just do it</t>
+  </si>
+  <si>
+    <t>If you are looking to increase peace in your life, this is an amazing program.</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Exciting and grounding</t>
+  </si>
+  <si>
+    <t>I learned actionable skills that I will use daily to help me manage my anxiety and generally be happy</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>If you need a training to help you to learn to meditate and quiet the noise in your mind - sign up!</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>It was an open and calm experience that helped with my anxiety</t>
+  </si>
+  <si>
+    <t>It is well worth the time</t>
   </si>
 </sst>
 </file>
@@ -660,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C867C38C-DA7B-E24E-A326-F4A3BE7C4C9D}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R21" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1933,6 +1984,327 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="1:18" ht="136">
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
+      <c r="M25" s="2">
+        <v>5</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>5</v>
+      </c>
+      <c r="P25" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>5</v>
+      </c>
+      <c r="R25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="17">
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5</v>
+      </c>
+      <c r="R26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="51">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>5</v>
+      </c>
+      <c r="M27" s="2">
+        <v>5</v>
+      </c>
+      <c r="N27" s="2">
+        <v>4</v>
+      </c>
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
+      <c r="P27" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>5</v>
+      </c>
+      <c r="R27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="170">
+      <c r="A28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>5</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
+      <c r="O28" s="2">
+        <v>5</v>
+      </c>
+      <c r="P28" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5</v>
+      </c>
+      <c r="R28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="153">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2">
+        <v>4</v>
+      </c>
+      <c r="L29" s="2">
+        <v>5</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>4</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5</v>
+      </c>
+      <c r="R29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="119">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2">
+        <v>5</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>5</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4</v>
+      </c>
+      <c r="O30" s="2">
+        <v>4</v>
+      </c>
+      <c r="P30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>5</v>
+      </c>
+      <c r="R30" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/survey.xlsx
+++ b/data/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/SKY@UO/SKY-UO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F206C7-A3C9-9F4A-8407-3934F43BED4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F13F6-EE47-7444-A1B0-E85776CEB4D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="2640" windowWidth="22620" windowHeight="12640" xr2:uid="{C74A5F35-91CC-8346-B990-65C696A22662}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>TP</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Wonderful</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>It is well worth the time</t>
+  </si>
+  <si>
+    <t>Non-binary</t>
   </si>
 </sst>
 </file>
@@ -713,9 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C867C38C-DA7B-E24E-A326-F4A3BE7C4C9D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1998,7 +1998,7 @@
         <v>92</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -2054,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2098,16 +2098,16 @@
         <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -2148,19 +2148,19 @@
     </row>
     <row r="28" spans="1:18" ht="170">
       <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G28">
         <v>9</v>
@@ -2210,10 +2210,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="30" spans="1:18" ht="119">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -2263,10 +2263,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G30">
         <v>9</v>
